--- a/架构设计/字段及通信要求.xlsx
+++ b/架构设计/字段及通信要求.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD93669-9D5B-4EFE-BDBB-79DDB61D2158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01678055-9622-41F5-8D1D-B8A13356BF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FC43A47C-4DF8-4F9A-A8E6-969BCC1DFB51}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FC43A47C-4DF8-4F9A-A8E6-969BCC1DFB51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="117">
   <si>
     <t>键</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,14 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
   </si>
   <si>
@@ -174,14 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出版社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pubcompany</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出版日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Brief</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -448,6 +430,46 @@
   </si>
   <si>
     <t>注：学生身份布尔类型为0；管理员身份布尔类型为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BookID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>categories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isbn编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isbn10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rating</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -858,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6985C2-EC95-4D6D-AEFE-1D0B73C8662B}">
   <dimension ref="A2:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -874,7 +896,7 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -940,10 +962,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -957,7 +979,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1006,7 +1028,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1072,7 +1094,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1104,10 +1126,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
@@ -1121,10 +1143,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -1138,7 +1160,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1147,7 +1169,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1188,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E31">
         <v>32</v>
@@ -1205,7 +1227,7 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E32">
         <v>64</v>
@@ -1222,7 +1244,7 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E33">
         <v>64</v>
@@ -1239,7 +1261,7 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E34">
         <v>64</v>
@@ -1247,7 +1269,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1279,7 +1301,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
@@ -1296,7 +1318,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1331,7 +1353,7 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="C43" t="s">
         <v>21</v>
@@ -1348,7 +1370,7 @@
         <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -1365,7 +1387,7 @@
         <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
@@ -1379,10 +1401,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
@@ -1396,19 +1418,19 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E47">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1416,30 +1438,30 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="C48" t="s">
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E48">
-        <v>64</v>
+        <v>512</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E49">
         <v>64</v>
@@ -1447,24 +1469,24 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E50">
-        <v>256</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1500,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E50E508-9769-46F6-A65C-119512783FC4}">
   <dimension ref="A2:E155"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1513,7 +1535,7 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1529,7 +1551,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1547,7 +1569,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1582,7 +1604,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -1599,7 +1621,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -1616,7 +1638,7 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -1630,10 +1652,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -1647,19 +1669,19 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1667,30 +1689,30 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15">
-        <v>64</v>
+        <v>512</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>64</v>
@@ -1698,19 +1720,19 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17">
-        <v>256</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1738,7 +1760,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
@@ -1755,7 +1777,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1764,7 +1786,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1773,7 +1795,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1808,7 +1830,7 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
         <v>21</v>
@@ -1825,7 +1847,7 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -1842,7 +1864,7 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -1856,10 +1878,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -1873,19 +1895,19 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E34">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1893,30 +1915,30 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E35">
-        <v>64</v>
+        <v>512</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E36">
         <v>64</v>
@@ -1924,19 +1946,19 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E37">
-        <v>256</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1964,7 +1986,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
@@ -1981,7 +2003,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1990,7 +2012,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1999,7 +2021,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2034,7 +2056,7 @@
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="C50" t="s">
         <v>21</v>
@@ -2051,7 +2073,7 @@
         <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
@@ -2068,7 +2090,7 @@
         <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
         <v>9</v>
@@ -2082,10 +2104,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
@@ -2099,19 +2121,19 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E54">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2119,30 +2141,30 @@
         <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s">
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E55">
-        <v>64</v>
+        <v>512</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C56" t="s">
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E56">
         <v>64</v>
@@ -2150,19 +2172,19 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E57">
-        <v>256</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2190,7 +2212,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
@@ -2207,7 +2229,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2216,7 +2238,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2225,7 +2247,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2243,7 +2265,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2275,10 +2297,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C74" t="s">
         <v>21</v>
@@ -2292,10 +2314,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C75" t="s">
         <v>9</v>
@@ -2332,7 +2354,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B78" t="s">
         <v>13</v>
@@ -2349,7 +2371,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -2381,10 +2403,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C83" t="s">
         <v>21</v>
@@ -2398,10 +2420,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C84" t="s">
         <v>9</v>
@@ -2418,7 +2440,7 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
@@ -2432,10 +2454,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B86" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C86" t="s">
         <v>20</v>
@@ -2449,10 +2471,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B87" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C87" t="s">
         <v>20</v>
@@ -2466,16 +2488,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B88" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C88" t="s">
         <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E88">
         <v>16</v>
@@ -2483,16 +2505,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B89" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C89" t="s">
         <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E89">
         <v>32</v>
@@ -2500,16 +2522,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B90" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E90">
         <v>32</v>
@@ -2517,10 +2539,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B91" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C91" t="s">
         <v>21</v>
@@ -2534,10 +2556,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B92" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C92" t="s">
         <v>9</v>
@@ -2551,10 +2573,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B93" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -2568,7 +2590,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -2577,7 +2599,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -2609,10 +2631,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B101" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C101" t="s">
         <v>21</v>
@@ -2626,10 +2648,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B102" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
@@ -2646,7 +2668,7 @@
         <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C103" t="s">
         <v>9</v>
@@ -2660,10 +2682,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B104" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C104" t="s">
         <v>20</v>
@@ -2677,10 +2699,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B105" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C105" t="s">
         <v>20</v>
@@ -2694,16 +2716,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B106" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C106" t="s">
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E106">
         <v>16</v>
@@ -2711,16 +2733,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B107" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C107" t="s">
         <v>20</v>
       </c>
       <c r="D107" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E107">
         <v>32</v>
@@ -2728,16 +2750,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B108" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C108" t="s">
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E108">
         <v>32</v>
@@ -2745,10 +2767,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B109" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C109" t="s">
         <v>21</v>
@@ -2762,10 +2784,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B110" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C110" t="s">
         <v>9</v>
@@ -2779,10 +2801,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B111" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -2819,7 +2841,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B114" t="s">
         <v>13</v>
@@ -2836,7 +2858,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -2845,7 +2867,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -2854,7 +2876,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -2886,10 +2908,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B124" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C124" t="s">
         <v>21</v>
@@ -2903,10 +2925,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B125" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C125" t="s">
         <v>9</v>
@@ -2943,7 +2965,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B128" t="s">
         <v>13</v>
@@ -2960,7 +2982,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -2969,7 +2991,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -2978,7 +3000,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -3010,10 +3032,10 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B138" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C138" t="s">
         <v>21</v>
@@ -3027,10 +3049,10 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B139" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C139" t="s">
         <v>9</v>
@@ -3047,7 +3069,7 @@
         <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C140" t="s">
         <v>9</v>
@@ -3061,10 +3083,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B141" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C141" t="s">
         <v>20</v>
@@ -3078,10 +3100,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B142" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C142" t="s">
         <v>20</v>
@@ -3095,16 +3117,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B143" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C143" t="s">
         <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E143">
         <v>16</v>
@@ -3112,16 +3134,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B144" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C144" t="s">
         <v>20</v>
       </c>
       <c r="D144" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E144">
         <v>32</v>
@@ -3129,16 +3151,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B145" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C145" t="s">
         <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E145">
         <v>32</v>
@@ -3146,10 +3168,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B146" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C146" t="s">
         <v>21</v>
@@ -3163,10 +3185,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B147" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C147" t="s">
         <v>9</v>
@@ -3180,10 +3202,10 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B148" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C148" t="s">
         <v>14</v>
@@ -3220,7 +3242,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B151" t="s">
         <v>13</v>
@@ -3237,7 +3259,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -3246,7 +3268,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -3306,7 +3328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA454CCC-A847-4FBD-893E-3BF00A1B5DD1}">
   <dimension ref="A2:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
@@ -3319,7 +3341,7 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3335,7 +3357,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3353,7 +3375,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3385,10 +3407,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -3442,7 +3464,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -3459,7 +3481,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -3468,7 +3490,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3477,7 +3499,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3509,10 +3531,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
@@ -3566,7 +3588,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
@@ -3583,7 +3605,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3592,7 +3614,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3601,7 +3623,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -3619,7 +3641,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3651,10 +3673,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
         <v>21</v>
@@ -3668,10 +3690,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
@@ -3688,7 +3710,7 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
@@ -3702,10 +3724,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
         <v>20</v>
@@ -3719,10 +3741,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
         <v>20</v>
@@ -3736,16 +3758,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E46">
         <v>16</v>
@@ -3753,16 +3775,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E47">
         <v>32</v>
@@ -3770,16 +3792,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E48">
         <v>32</v>
@@ -3787,10 +3809,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
         <v>21</v>
@@ -3804,10 +3826,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
@@ -3821,10 +3843,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -3838,7 +3860,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -3870,16 +3892,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C56" t="s">
         <v>21</v>
       </c>
       <c r="D56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E56">
         <v>16</v>
@@ -3887,16 +3909,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E57">
         <v>32</v>
@@ -3907,13 +3929,13 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E58">
         <v>64</v>
@@ -3921,16 +3943,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C59" t="s">
         <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E59">
         <v>32</v>
@@ -3938,16 +3960,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C60" t="s">
         <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E60">
         <v>32</v>
@@ -3955,16 +3977,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E61">
         <v>16</v>
@@ -3972,16 +3994,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s">
         <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E62">
         <v>32</v>
@@ -3989,16 +4011,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E63">
         <v>32</v>
@@ -4006,16 +4028,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C64" t="s">
         <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E64">
         <v>16</v>
@@ -4023,16 +4045,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C65" t="s">
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E65">
         <v>32</v>
@@ -4040,16 +4062,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4057,7 +4079,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -4089,7 +4111,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B70" t="s">
         <v>13</v>
@@ -4106,7 +4128,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -4115,7 +4137,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -4124,7 +4146,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -4156,10 +4178,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B80" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C80" t="s">
         <v>21</v>
@@ -4173,10 +4195,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C81" t="s">
         <v>9</v>
@@ -4213,10 +4235,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B84" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
@@ -4230,7 +4252,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -4239,7 +4261,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -4248,34 +4270,34 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A25:E25"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="A39:E39"/>
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A36:E36"/>
     <mergeCell ref="A88:E88"/>
     <mergeCell ref="A53:E53"/>
     <mergeCell ref="A54:E54"/>
     <mergeCell ref="A68:E68"/>
     <mergeCell ref="A72:E72"/>
     <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A67:E67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
